--- a/Data/Metadata/Angiosperms/powo/Salicaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Salicaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,17 +702,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Irenodendron</t>
+          <t>Casearia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>coriaceum</t>
+          <t>completa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(Spruce ex Benth.) M.H.Alford &amp; Dement</t>
+          <t>(Jacq.) T.Samar. &amp; M.H.Alford</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -725,7 +725,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Irenodendron_coriaceum</t>
+          <t>Casearia_completa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77154655-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77197257-1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77154655-1</t>
+          <t>urn:lsid:ipni.org:names:77197257-1</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>completa</t>
+          <t>maynacarpa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(Jacq.) T.Samar. &amp; M.H.Alford</t>
+          <t>Liesner &amp; P.Jørg.</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -780,7 +780,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Casearia_completa</t>
+          <t>Casearia_maynacarpa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77197257-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77137837-1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77197257-1</t>
+          <t>urn:lsid:ipni.org:names:77137837-1</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>maynacarpa</t>
+          <t>euceraea</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Liesner &amp; P.Jørg.</t>
+          <t>de Mestier, Celis &amp; Borsch</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -835,7 +835,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Casearia_maynacarpa</t>
+          <t>Casearia_euceraea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77137837-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77297754-1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77137837-1</t>
+          <t>urn:lsid:ipni.org:names:77297754-1</t>
         </is>
       </c>
     </row>
@@ -872,12 +872,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>euceraea</t>
+          <t>suaveolens</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>de Mestier, Celis &amp; Borsch</t>
+          <t>(Poepp.) T.Samar. &amp; M.H.Alford</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -890,7 +890,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Casearia_euceraea</t>
+          <t>Casearia_suaveolens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77297754-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77197254-1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77297754-1</t>
+          <t>urn:lsid:ipni.org:names:77197254-1</t>
         </is>
       </c>
     </row>
@@ -922,17 +922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Casearia</t>
+          <t>Piparea</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>suaveolens</t>
+          <t>spruceana</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(Poepp.) T.Samar. &amp; M.H.Alford</t>
+          <t>(Benth. ex Eichler) T.Samar. &amp; M.H.Alford</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -945,7 +945,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Casearia_suaveolens</t>
+          <t>Piparea_spruceana</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77197254-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77197258-1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77197254-1</t>
+          <t>urn:lsid:ipni.org:names:77197258-1</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Irenodendron</t>
+          <t>Casearia</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cupulatum</t>
+          <t>apodantha</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(Spruce ex Benth.) M.H.Alford &amp; Dement</t>
+          <t>(Kuhlm.) de Mestier, Celis &amp; Borsch</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Irenodendron_cupulatum</t>
+          <t>Casearia_apodantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77154654-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77297752-1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77154654-1</t>
+          <t>urn:lsid:ipni.org:names:77297752-1</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1032,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Piparea</t>
+          <t>Casearia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>spruceana</t>
+          <t>americana</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(Benth. ex Eichler) T.Samar. &amp; M.H.Alford</t>
+          <t>(L.) T.Samar. &amp; M.H.Alford</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Piparea_spruceana</t>
+          <t>Casearia_americana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77197258-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77197250-1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77197258-1</t>
+          <t>urn:lsid:ipni.org:names:77197250-1</t>
         </is>
       </c>
     </row>
@@ -1087,17 +1087,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Casearia</t>
+          <t>Piparea</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>apodantha</t>
+          <t>multiflora</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(Kuhlm.) de Mestier, Celis &amp; Borsch</t>
+          <t>C.F.Gaertn.</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Casearia_apodantha</t>
+          <t>Piparea_multiflora</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1125,120 +1125,10 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77297752-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:779915-1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:77297752-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Salicaceae</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Casearia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>americana</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>(L.) T.Samar. &amp; M.H.Alford</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Casearia_americana</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77197250-1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:77197250-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Salicaceae</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Piparea</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>multiflora</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>C.F.Gaertn.</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Piparea_multiflora</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:779915-1</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>urn:lsid:ipni.org:names:779915-1</t>
         </is>
